--- a/01 Assembly/008 嵌套函数堆栈图.xlsx
+++ b/01 Assembly/008 嵌套函数堆栈图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\01 Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C2B260C-1251-43B0-8129-1F408452FC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7CB84-3722-4449-AA82-B7D1AE36E35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9708" yWindow="720" windowWidth="13116" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="259">
   <si>
     <t>1、函数/调用/参数/返回值</t>
   </si>
@@ -375,12 +375,702 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>入口 0040D518</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套函数的堆栈图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0040D518  PUSH 7</t>
+  </si>
+  <si>
+    <t>0040D51A  PUSH 6</t>
+  </si>
+  <si>
+    <t>0040D51C  PUSH 5</t>
+  </si>
+  <si>
+    <t>0040D51E  PUSH 4</t>
+  </si>
+  <si>
+    <t>0040D520  PUSH 3</t>
+  </si>
+  <si>
+    <t>0040D522  CALL 008_Stac.0040100F</t>
+  </si>
+  <si>
+    <t>0040D527  ADD ESP,14</t>
+  </si>
+  <si>
+    <t>0040D52A  MOV DWORD PTR SS:[EBP-4],EAX</t>
+  </si>
+  <si>
+    <t>0040D4A0  PUSH EBP</t>
+  </si>
+  <si>
+    <t>0040D4A1  MOV EBP,ESP</t>
+  </si>
+  <si>
+    <t>0040D4A3  SUB ESP,4C</t>
+  </si>
+  <si>
+    <t>0040D4A6  PUSH EBX</t>
+  </si>
+  <si>
+    <t>0040D4A7  PUSH ESI</t>
+  </si>
+  <si>
+    <t>0040D4A8  PUSH EDI</t>
+  </si>
+  <si>
+    <t>0040D4A9  LEA EDI,DWORD PTR SS:[EBP-4C]</t>
+  </si>
+  <si>
+    <t>0040D4AC  MOV ECX,13</t>
+  </si>
+  <si>
+    <t>0040D4B1  MOV EAX,CCCCCCCC</t>
+  </si>
+  <si>
+    <t>0040D4B6  REP STOS DWORD PTR ES:[EDI]</t>
+  </si>
+  <si>
+    <t>0040D4B8  MOV DWORD PTR SS:[EBP-4],2</t>
+  </si>
+  <si>
+    <t>0040D4BF  MOV DWORD PTR SS:[EBP-8],3</t>
+  </si>
+  <si>
+    <t>0040D4C6  MOV EAX,DWORD PTR SS:[EBP+14]</t>
+  </si>
+  <si>
+    <t>0040D4C9  PUSH EAX</t>
+  </si>
+  <si>
+    <t>0040D4CA  MOV ECX,DWORD PTR SS:[EBP+10]</t>
+  </si>
+  <si>
+    <t>0040D4CD  PUSH ECX</t>
+  </si>
+  <si>
+    <t>0040D4CE  MOV EDX,DWORD PTR SS:[EBP+C]</t>
+  </si>
+  <si>
+    <t>0040D4D1  PUSH EDX</t>
+  </si>
+  <si>
+    <t>0040D4D2  MOV EAX,DWORD PTR SS:[EBP+8]</t>
+  </si>
+  <si>
+    <t>0040D4D5  PUSH EAX</t>
+  </si>
+  <si>
+    <t>0040D4D6  CALL 008_Stac.00401019</t>
+  </si>
+  <si>
+    <t>0040D4DE  MOV DWORD PTR SS:[EBP-C],EAX</t>
+  </si>
+  <si>
+    <t>0040D4E1  MOV EAX,DWORD PTR SS:[EBP-4]</t>
+  </si>
+  <si>
+    <t>0040D4E4  ADD EAX,DWORD PTR SS:[EBP-8]</t>
+  </si>
+  <si>
+    <t>0040D4E7  ADD EAX,DWORD PTR SS:[EBP+18]</t>
+  </si>
+  <si>
+    <t>0040D4EA  ADD EAX,DWORD PTR SS:[EBP-C]</t>
+  </si>
+  <si>
+    <t>0040D4ED  POP EDI</t>
+  </si>
+  <si>
+    <t>0040D4EE  POP ESI</t>
+  </si>
+  <si>
+    <t>0040D4EF  POP EBX</t>
+  </si>
+  <si>
+    <t>0040D4F0  ADD ESP,4C</t>
+  </si>
+  <si>
+    <t>0040D4F3  CMP EBP,ESP</t>
+  </si>
+  <si>
+    <t>0040D4F5  CALL 008_Stac.004010B0</t>
+  </si>
+  <si>
+    <t>0040D4FC  POP EBP</t>
+  </si>
+  <si>
+    <t>0040D4FD  RETN</t>
+  </si>
+  <si>
+    <t>功能区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE80   0018FF48</t>
+  </si>
+  <si>
+    <t>0018FE84   00000000</t>
+  </si>
+  <si>
+    <t>0018FE88   7EFDE000</t>
+  </si>
+  <si>
+    <t>0018FE8C   CCCCCCCC</t>
+  </si>
+  <si>
+    <t>0018FE90   CCCCCCCC</t>
+  </si>
+  <si>
+    <t>0018FED0   CCCCCCCC</t>
+  </si>
+  <si>
+    <t>0018FED8   0018FF48</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBP</t>
+  </si>
+  <si>
+    <t>EBP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FEDC  |0040D527  RETURN to 008_Stac.0040D527 from 008_Stac.0040100F</t>
+  </si>
+  <si>
+    <t>0018FEE0  |00000003</t>
+  </si>
+  <si>
+    <t>0018FEE4  |00000004</t>
+  </si>
+  <si>
+    <t>0018FEE8  |00000005</t>
+  </si>
+  <si>
+    <t>0018FEEC  |00000006</t>
+  </si>
+  <si>
+    <t>0018FEF0  |00000007</t>
+  </si>
+  <si>
+    <t>返回地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…………   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部变量 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE7C   00000006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECX=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDX=4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE7C   00000005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE80   00000006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE78   00000004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FED4  CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE74   00000003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00401060  PUSH EBP</t>
+  </si>
+  <si>
+    <t>00401061  MOV EBP,ESP</t>
+  </si>
+  <si>
+    <t>00401063  SUB ESP,48</t>
+  </si>
+  <si>
+    <t>00401066  PUSH EBX</t>
+  </si>
+  <si>
+    <t>00401067  PUSH ESI</t>
+  </si>
+  <si>
+    <t>00401068  PUSH EDI</t>
+  </si>
+  <si>
+    <t>00401069  LEA EDI,DWORD PTR SS:[EBP-48]</t>
+  </si>
+  <si>
+    <t>0040106C  MOV ECX,12</t>
+  </si>
+  <si>
+    <t>00401071  MOV EAX,CCCCCCCC</t>
+  </si>
+  <si>
+    <t>00401076  REP STOS DWORD PTR ES:[EDI]</t>
+  </si>
+  <si>
+    <t>00401078  MOV DWORD PTR SS:[EBP-4],2</t>
+  </si>
+  <si>
+    <t>0040107F  MOV EAX,DWORD PTR SS:[EBP+10]</t>
+  </si>
+  <si>
+    <t>00401082  PUSH EAX</t>
+  </si>
+  <si>
+    <t>00401083  MOV ECX,DWORD PTR SS:[EBP+C]</t>
+  </si>
+  <si>
+    <t>00401086  PUSH ECX</t>
+  </si>
+  <si>
+    <t>00401087  MOV EDX,DWORD PTR SS:[EBP+8]</t>
+  </si>
+  <si>
+    <t>0040108A  PUSH EDX</t>
+  </si>
+  <si>
+    <t>0040108B  CALL 008_Stac.00401014</t>
+  </si>
+  <si>
+    <t>00401093  MOV DWORD PTR SS:[EBP-8],EAX</t>
+  </si>
+  <si>
+    <t>00401096  MOV EAX,DWORD PTR SS:[EBP-4]</t>
+  </si>
+  <si>
+    <t>00401099  ADD EAX,DWORD PTR SS:[EBP-8]</t>
+  </si>
+  <si>
+    <t>0040109C  ADD EAX,DWORD PTR SS:[EBP+14]</t>
+  </si>
+  <si>
+    <t>0040109F  POP EDI</t>
+  </si>
+  <si>
+    <t>004010A0  POP ESI</t>
+  </si>
+  <si>
+    <t>004010A1  POP EBX</t>
+  </si>
+  <si>
+    <t>004010A2  ADD ESP,48</t>
+  </si>
+  <si>
+    <t>004010A5  CMP EBP,ESP</t>
+  </si>
+  <si>
+    <t>004010A7  CALL 008_Stac.004010B0</t>
+  </si>
+  <si>
+    <t>004010AE  POP EBP</t>
+  </si>
+  <si>
+    <t>004010AF  RETN</t>
+  </si>
+  <si>
+    <t>0040D4DB  ADD ESP,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETURN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>.........  CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE24   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE1C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE14   5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECX=4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDX=3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE78   00000005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE74   00000004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE70   00000003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE6C   0040D4DB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE68   0018FED8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE64   2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE60   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE20   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE10   5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE0C   4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE08   3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00401020  PUSH EBP</t>
+  </si>
+  <si>
+    <t>00401021  MOV EBP,ESP</t>
+  </si>
+  <si>
+    <t>00401023  SUB ESP,40</t>
+  </si>
+  <si>
+    <t>00401026  PUSH EBX</t>
+  </si>
+  <si>
+    <t>00401027  PUSH ESI</t>
+  </si>
+  <si>
+    <t>00401028  PUSH EDI</t>
+  </si>
+  <si>
+    <t>00401029  LEA EDI,DWORD PTR SS:[EBP-40]</t>
+  </si>
+  <si>
+    <t>0040102C  MOV ECX,10</t>
+  </si>
+  <si>
+    <t>00401031  MOV EAX,CCCCCCCC</t>
+  </si>
+  <si>
+    <t>00401036  REP STOS DWORD PTR ES:[EDI]</t>
+  </si>
+  <si>
+    <t>00401038  MOV EAX,DWORD PTR SS:[EBP+8]</t>
+  </si>
+  <si>
+    <t>0040103B  ADD EAX,DWORD PTR SS:[EBP+C]</t>
+  </si>
+  <si>
+    <t>0040103E  ADD EAX,DWORD PTR SS:[EBP+10]</t>
+  </si>
+  <si>
+    <t>00401041  POP EDI</t>
+  </si>
+  <si>
+    <t>00401042  POP ESI</t>
+  </si>
+  <si>
+    <t>00401043  POP EBX</t>
+  </si>
+  <si>
+    <t>00401044  MOV ESP,EBP</t>
+  </si>
+  <si>
+    <t>00401046  POP EBP</t>
+  </si>
+  <si>
+    <t>00401047  RETN</t>
+  </si>
+  <si>
+    <t>00401090  ADD ESP,0C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE04   00401090</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE00   0018FE68</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FEDC  |0040D527  RETURN to 0040D527 from 0040100F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FDFC   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FDB0   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FDB4   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FDF8   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FDF4   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FDB8   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FDAC   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FDA8   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FDA4   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个CALL调用完后</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FE80   0018FF48</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zf-&gt;1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>004010B0  JNZ SHORT 008_Stac.004010B3</t>
+  </si>
+  <si>
+    <t>004010B2  RETN</t>
+  </si>
+  <si>
+    <t>第二个CALL调用完后</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBP=ESP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>004010AC  MOV ESP,EBP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>004010AC</t>
+  </si>
+  <si>
+    <t>zf=1,jnz不满足,向下执行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…………………………</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个call调用完后</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外平栈</t>
+  </si>
+  <si>
+    <t>外平栈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传参</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FECC   CCCCCCCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=0xC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zf=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0040D4FA  MOV ESP,EBP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0040D4FA</t>
+  </si>
+  <si>
+    <t>不跳转</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个call调用完后</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FF48</t>
+  </si>
+  <si>
+    <t>..........</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0018FEF4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=0x14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=0xE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=0xE+6=0x14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=0xC+0x14=0x20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAX=0x20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数堆栈内主要通过EBP指针操作 局部变量 和 参数进行运算、</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>以及寄存器值的存储</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -411,8 +1101,42 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +1191,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -500,7 +1254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +1297,84 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -559,6 +1391,1288 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A71B0B-B27A-CD99-8504-2D28C3375CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3383280" y="967740"/>
+          <a:ext cx="1379220" cy="1927860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="左大括号 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B0CAF5-BCB2-3C1D-4A9E-61117B3FAFAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4503420" y="2796540"/>
+          <a:ext cx="251460" cy="4693920"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="左大括号 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299F993E-0B2A-C376-E755-D2454E742550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9288780" y="5638800"/>
+          <a:ext cx="327660" cy="845820"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>684305</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361373</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="箭头: 右 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6578B6E0-4B18-1F70-8AD4-869CC3CE0929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19099151">
+          <a:off x="7542305" y="3640840"/>
+          <a:ext cx="3780982" cy="286965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3C8356-E694-4B9F-A7D5-80771C190178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8187466" y="7109012"/>
+          <a:ext cx="1288228" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左大括号 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665A4224-A9B6-4F5A-B396-C869D3E337F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10165080" y="4122420"/>
+          <a:ext cx="327660" cy="845820"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>618775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>116486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>421022</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>32666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="箭头: 右 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99587B1-D155-4E3B-BA23-A0E0F63E33F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18944677">
+          <a:off x="11782075" y="7309766"/>
+          <a:ext cx="3345547" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A626EF-94FE-3F3B-0CA5-B75CE2B612AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12519660" y="10111740"/>
+          <a:ext cx="2385060" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="左大括号 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E53520E-04AA-4C49-900E-EFCFE15B9AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14394180" y="9867900"/>
+          <a:ext cx="327660" cy="845820"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>282105</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>83495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>594525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>71187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="箭头: 右 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FD984D-672E-43FC-A528-39B34CCDA22F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17818893">
+          <a:off x="16766509" y="12067411"/>
+          <a:ext cx="3950092" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>89955</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="箭头: 右 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D3960F-AE34-433B-9162-3695BFE0EB9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16335795" y="5417620"/>
+          <a:ext cx="1677885" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="任意多边形: 形状 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97904DFD-C7A1-1296-98FA-D12898801B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8778240" y="12275820"/>
+          <a:ext cx="403860" cy="762000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 403860 w 403860"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 762000"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 403860"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 762000"/>
+            <a:gd name="connsiteX2" fmla="*/ 7620 w 403860"/>
+            <a:gd name="connsiteY2" fmla="*/ 731520 h 762000"/>
+            <a:gd name="connsiteX3" fmla="*/ 312420 w 403860"/>
+            <a:gd name="connsiteY3" fmla="*/ 762000 h 762000"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="403860" h="762000">
+              <a:moveTo>
+                <a:pt x="403860" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="7620" y="731520"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="312420" y="762000"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>89955</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="箭头: 右 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{371FB853-0B67-48EB-8018-BDE0C8458B3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19871475" y="5973880"/>
+          <a:ext cx="1792185" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="任意多边形: 形状 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B030A5BD-89F4-6F4D-5D8D-62008EBDE770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8549640" y="12435840"/>
+          <a:ext cx="586740" cy="845820"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 586740 w 586740"/>
+            <a:gd name="connsiteY0" fmla="*/ 845820 h 845820"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 586740"/>
+            <a:gd name="connsiteY1" fmla="*/ 845820 h 845820"/>
+            <a:gd name="connsiteX2" fmla="*/ 7620 w 586740"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 845820"/>
+            <a:gd name="connsiteX3" fmla="*/ 586740 w 586740"/>
+            <a:gd name="connsiteY3" fmla="*/ 22860 h 845820"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="586740" h="845820">
+              <a:moveTo>
+                <a:pt x="586740" y="845820"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="845820"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="7620" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="586740" y="22860"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>365761</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="箭头: 右 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C987AB2-3550-441C-B9A2-99AB15320101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12329161" y="2011680"/>
+          <a:ext cx="1120139" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="右大括号 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC2C732-AF70-4AA2-FB91-02CAE11C7543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8776447" y="5486400"/>
+          <a:ext cx="143435" cy="1416424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB8F247-3794-5057-C76A-505E7FA16135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2743200" y="9427029"/>
+          <a:ext cx="2100943" cy="1023257"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="连接符: 肘形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F347FCE-3045-3369-8069-2DE639250E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3341914" y="9601200"/>
+          <a:ext cx="1480457" cy="1175657"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47794"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>500742</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>206827</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="箭头: 右 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B1A5A0-799C-4439-BD9A-144C1E3FAF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16241485" y="2627812"/>
+          <a:ext cx="2612571" cy="343988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 56390"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="左大括号 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFB8F23-2C17-4671-91E6-EBC5C018574C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420894" y="5095603"/>
+          <a:ext cx="327660" cy="837111"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -893,27 +3007,30 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:B10"/>
+  <dimension ref="B4:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>2</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1373,15 +3490,1695 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B1:AH95"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="17.8984375" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="22" max="22" width="10.19921875" customWidth="1"/>
+    <col min="23" max="23" width="11.19921875" customWidth="1"/>
+    <col min="28" max="28" width="10.3984375" customWidth="1"/>
+    <col min="30" max="30" width="10.8984375" customWidth="1"/>
+    <col min="33" max="33" width="13.296875" customWidth="1"/>
+    <col min="36" max="36" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:30" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="C1" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="3:30" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="C2" s="16"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC2" s="24"/>
+    </row>
+    <row r="3" spans="3:30" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="C3" s="16"/>
+      <c r="AB3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC3" s="24"/>
+    </row>
+    <row r="4" spans="3:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="16"/>
+      <c r="AB4" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC4" s="24"/>
+    </row>
+    <row r="5" spans="3:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="16"/>
+      <c r="AB5" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="16"/>
+      <c r="U6" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="V6" s="27"/>
+      <c r="W6" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD6" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="3:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="16"/>
+      <c r="U7" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="V7" s="24"/>
+      <c r="AB7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="3:30" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="16"/>
+      <c r="U8" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="V8" s="24"/>
+      <c r="AB8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD8" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="3:30" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="16"/>
+      <c r="O9" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="U9" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" s="24"/>
+      <c r="AB9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="3:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="16"/>
+      <c r="P10" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="U10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="V10" s="24"/>
+      <c r="X10" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="P11" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="U11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" s="23"/>
+      <c r="AB11" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="P12" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="U12" t="s">
+        <v>105</v>
+      </c>
+      <c r="W12" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB12" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="U13" t="s">
+        <v>106</v>
+      </c>
+      <c r="W13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB13" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC13" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="U14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB14" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s">
+        <v>108</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="V17" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="U18" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="V18" s="21">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>3</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="V19" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>2</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA21" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB21" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC21" s="29"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC22" s="29"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="H23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA23" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB23" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC23" s="29"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="21">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" t="s">
+        <v>120</v>
+      </c>
+      <c r="U25" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="V25" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="W25" s="27"/>
+      <c r="AA25" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB25" s="27"/>
+      <c r="AF25" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG25" s="27"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="H26" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="21"/>
+      <c r="P26" t="s">
+        <v>121</v>
+      </c>
+      <c r="V26" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="W26" s="27"/>
+      <c r="AA26" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB26" s="27"/>
+      <c r="AF26" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG26" s="27"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="H27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="P27" t="s">
+        <v>122</v>
+      </c>
+      <c r="V27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="W27" s="27"/>
+      <c r="AA27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB27" s="27"/>
+      <c r="AF27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG27" s="27"/>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="H28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="21"/>
+      <c r="V28" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="W28" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA28" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB28" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF28" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG28" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="H29" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="V29" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="W29" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA29" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB29" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF29" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG29" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="H30" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="21"/>
+      <c r="V30" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="W30" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA30" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB30" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF30" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG30" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="H31" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="V31" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="W31" s="28"/>
+      <c r="AA31" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB31" s="28"/>
+      <c r="AF31" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG31" s="28"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="H32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="21"/>
+      <c r="V32" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="W32" s="28"/>
+      <c r="X32" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA32" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF32" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="15"/>
+    </row>
+    <row r="33" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H33" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="V33" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="W33" s="28"/>
+      <c r="AA33" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB33" s="28"/>
+      <c r="AF33" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG33" s="28"/>
+    </row>
+    <row r="34" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="G34" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="V34" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="W34" s="28"/>
+      <c r="AA34" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB34" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF34" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG34" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="21"/>
+      <c r="V35" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="W35" s="28"/>
+      <c r="AA35" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB35" s="28"/>
+      <c r="AF35" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG35" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH35" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N36" t="s">
+        <v>139</v>
+      </c>
+      <c r="U36" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="V36" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="W36" s="28"/>
+      <c r="Z36" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA36" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB36" s="28"/>
+      <c r="AF36" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG36" s="28"/>
+    </row>
+    <row r="37" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="N37" t="s">
+        <v>140</v>
+      </c>
+      <c r="V37" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="W37" s="27"/>
+      <c r="X37" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA37" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF37" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H38" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="N38" t="s">
+        <v>141</v>
+      </c>
+      <c r="V38" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="W38" s="24"/>
+      <c r="AA38" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB38" s="24"/>
+      <c r="AE38" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF38" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG38" s="24"/>
+    </row>
+    <row r="39" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H39" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="N39" t="s">
+        <v>142</v>
+      </c>
+      <c r="V39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="W39" s="24"/>
+      <c r="AA39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB39" s="24"/>
+      <c r="AF39" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG39" s="24"/>
+    </row>
+    <row r="40" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H40" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="21"/>
+      <c r="N40" t="s">
+        <v>143</v>
+      </c>
+      <c r="V40" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="W40" s="24"/>
+      <c r="AA40" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB40" s="24"/>
+      <c r="AF40" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG40" s="24"/>
+    </row>
+    <row r="41" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H41" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="21"/>
+      <c r="N41" t="s">
+        <v>144</v>
+      </c>
+      <c r="V41" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="W41" s="24"/>
+      <c r="AA41" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB41" s="24"/>
+      <c r="AF41" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG41" s="24"/>
+    </row>
+    <row r="42" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H42" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="21"/>
+      <c r="N42" t="s">
+        <v>145</v>
+      </c>
+      <c r="V42" t="s">
+        <v>104</v>
+      </c>
+      <c r="X42" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H43" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="21"/>
+      <c r="N43" t="s">
+        <v>146</v>
+      </c>
+      <c r="V43" t="s">
+        <v>105</v>
+      </c>
+      <c r="X43" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE43" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF43" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H44" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="N44" t="s">
+        <v>147</v>
+      </c>
+      <c r="V44" t="s">
+        <v>106</v>
+      </c>
+      <c r="X44" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H45" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="N45" t="s">
+        <v>148</v>
+      </c>
+      <c r="V45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H46" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="N46" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="T46" s="28"/>
+      <c r="V46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>101</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="T47" s="28"/>
+      <c r="V47" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="7:34" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>102</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="V48" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="W48" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N49" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="T49" s="28"/>
+      <c r="V49" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="W49" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N50" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="V50" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D51" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="T51" s="28"/>
+      <c r="U51" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="V51" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D52" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="N52" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="V52" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC52" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD52" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N53" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="T53" s="32"/>
+      <c r="V53" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC53" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD53" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N54" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="T54" s="28"/>
+      <c r="U54" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="V54" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC54" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD54" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N55" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="V55" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC55" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD55" s="29"/>
+    </row>
+    <row r="56" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N56" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="T56" s="28"/>
+      <c r="V56" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC56" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD56" s="29"/>
+    </row>
+    <row r="57" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N57" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="T57" s="28"/>
+      <c r="AC57" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD57" s="29"/>
+    </row>
+    <row r="58" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N58" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="T58" s="18"/>
+      <c r="AC58" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD58" s="29"/>
+    </row>
+    <row r="59" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N59" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="AC59" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD59" s="29"/>
+    </row>
+    <row r="60" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N60" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="AC60" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD60" s="29"/>
+    </row>
+    <row r="61" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N61" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="AC61" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD61" s="29"/>
+    </row>
+    <row r="62" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N62" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="AC62" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD62" s="29"/>
+    </row>
+    <row r="63" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N63" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="T63" s="28"/>
+      <c r="AC63" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD63" s="29"/>
+    </row>
+    <row r="64" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="N64" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="V64" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB64" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC64" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD64" s="27"/>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="N65" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="V65" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC65" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD65" s="27"/>
+    </row>
+    <row r="66" spans="2:30" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B66" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="18"/>
+      <c r="N66" t="s">
+        <v>167</v>
+      </c>
+      <c r="V66" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC66" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD66" s="27"/>
+    </row>
+    <row r="67" spans="2:30" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B67" s="39"/>
+      <c r="C67" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="18"/>
+      <c r="N67" t="s">
+        <v>168</v>
+      </c>
+      <c r="V67" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC67" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD67" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B68" s="39"/>
+      <c r="C68" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="18"/>
+      <c r="N68" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+      <c r="V68" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC68" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD68" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="N69" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="O69" s="18"/>
+      <c r="V69" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC69" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD69" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V70" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC70" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD70" s="28"/>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V71" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC71" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD71" s="28"/>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V72" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC72" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD72" s="28"/>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V73" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC73" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD73" s="28"/>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V74" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC74" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD74" s="28"/>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V75" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="W75" s="17"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB75" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC75" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD75" s="28"/>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V76" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="W76" s="17"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC76" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD76" s="27"/>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V77" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC77" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD77" s="24"/>
+    </row>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V78" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC78" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD78" s="24"/>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V79" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC79" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD79" s="24"/>
+    </row>
+    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V80" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC80" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD80" s="24"/>
+    </row>
+    <row r="81" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V81" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V82" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC86" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC87" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD87" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC88" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD88" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC89" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AB90" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AB93" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="AC95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>